--- a/detail_order.xlsx
+++ b/detail_order.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$1:$G$57</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$1:$G$58</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,13 +29,13 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" interval="1" name="Connection" type="1" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
-    <dbPr connection="DRIVER=SQL Server;SERVER=localhost;Database=shop;UID=sa;" command="SELECT * FROM shop.dbo.detail_order;"/>
+    <dbPr connection="DRIVER=SQL Server;DATABASE=shop;SERVER=localhost;UID=sa;" command="SELECT * FROM shop.dbo.detail_order;"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="42">
   <si>
     <t>order_id</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
   </si>
 </sst>
 </file>
@@ -226,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_ExternalData_1" displayName="Table_ExternalData_1" ref="A1:G57" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_ExternalData_1" displayName="Table_ExternalData_1" ref="A1:G58" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G58"/>
   <tableColumns count="7">
     <tableColumn id="1" uniqueName="1" name="order_id" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="date_ordered" queryTableFieldId="2"/>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1697,6 +1700,9 @@
       <c r="B55" t="s">
         <v>38</v>
       </c>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
       <c r="D55">
         <v>1</v>
       </c>
@@ -1704,10 +1710,10 @@
         <v>360000</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1717,6 +1723,9 @@
       <c r="B56" t="s">
         <v>38</v>
       </c>
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
       <c r="D56">
         <v>1</v>
       </c>
@@ -1724,10 +1733,10 @@
         <v>20000</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1748,6 +1757,26 @@
       </c>
       <c r="G57" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3068</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>13440</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
